--- a/data/escapement/prelim-inseason/2024/AUC_DataAnalysisTable_area20_2024.xlsx
+++ b/data/escapement/prelim-inseason/2024/AUC_DataAnalysisTable_area20_2024.xlsx
@@ -13,7 +13,7 @@
     <sheet r:id="rId5" sheetId="2" name="AUC_DataAnalysisTable1"/>
   </sheets>
   <definedNames>
-    <definedName name="AUC_DataAnalysisTable">'AUC_DataAnalysisTable1'!$A$1:$AC$36</definedName>
+    <definedName name="AUC_DataAnalysisTable">'AUC_DataAnalysisTable1'!$A$1:$AC$39</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -3100,7 +3100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3330,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="AB2" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC2" s="0" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>72</v>
       </c>
       <c r="AB3" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC3" s="0" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>608</v>
       </c>
       <c r="AB4" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC4" s="0" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC5" s="0" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC6" s="0" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC7" s="0" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>51</v>
       </c>
       <c r="AB8" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC8" s="0" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>415</v>
       </c>
       <c r="AB9" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC9" s="0" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC10" s="0" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC11" s="0" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC12" s="0" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="AB13" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC13" s="0" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="AB14" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC14" s="0" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC15" s="0" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC16" s="0" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>146</v>
       </c>
       <c r="AB17" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC17" s="0" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>60</v>
       </c>
       <c r="AB18" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC18" s="0" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>498</v>
       </c>
       <c r="AB19" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC19" s="0" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC20" s="0" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="AB21" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC21" s="0" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="AB22" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC22" s="0" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>2055</v>
       </c>
       <c r="AB23" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC23" s="0" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>1808</v>
       </c>
       <c r="AB24" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC24" s="0" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>OT</t>
         </is>
       </c>
       <c r="G25" s="0">
@@ -5134,25 +5134,25 @@
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="L25" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
       </c>
       <c r="T25" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U25" s="0">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V25" s="0">
         <v>0</v>
@@ -5161,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC25" s="0" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="G26" s="0">
@@ -5217,21 +5217,17 @@
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>Sockeye</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="L26" s="0">
-        <v>6</v>
-      </c>
-      <c r="M26" s="0">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M26" s="0"/>
       <c r="N26" s="0">
-        <v>6</v>
-      </c>
-      <c r="O26" s="0">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O26" s="0"/>
       <c r="Q26" s="0">
         <v>0</v>
       </c>
@@ -5241,7 +5237,7 @@
         </is>
       </c>
       <c r="U26" s="0">
-        <v>0.899999976158142</v>
+        <v>1</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5250,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="X26" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC26" s="0" t="inlineStr">
         <is>
@@ -5271,7 +5267,7 @@
         </is>
       </c>
       <c r="C27" s="8">
-        <v>45575</v>
+        <v>45567</v>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
@@ -5285,11 +5281,11 @@
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G27" s="0">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="0">
         <v>3</v>
@@ -5301,30 +5297,36 @@
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Extremely Low</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>Chum</t>
+          <t>Sockeye</t>
         </is>
       </c>
       <c r="L27" s="0">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="M27" s="0">
+        <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="U27" s="0">
-        <v>1</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5333,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="X27" s="0">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AB27" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC27" s="0" t="inlineStr">
         <is>
@@ -5368,7 +5370,7 @@
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="G28" s="0">
@@ -5389,17 +5391,15 @@
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>Chinook</t>
+          <t>Chum</t>
         </is>
       </c>
       <c r="L28" s="0">
-        <v>287</v>
-      </c>
-      <c r="M28" s="0">
-        <v>373</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M28" s="0"/>
       <c r="N28" s="0">
-        <v>660</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>0.982876718044281</v>
+        <v>1</v>
       </c>
       <c r="X28" s="0">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="AB28" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC28" s="0" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="G29" s="0">
@@ -5475,20 +5475,21 @@
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>Coho</t>
+          <t>Chinook</t>
         </is>
       </c>
       <c r="L29" s="0">
-        <v>2251</v>
+        <v>287</v>
+      </c>
+      <c r="M29" s="0">
+        <v>373</v>
       </c>
       <c r="N29" s="0">
-        <v>2251</v>
-      </c>
-      <c r="O29" s="0">
-        <v>209</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="O29" s="0"/>
       <c r="Q29" s="0">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0" t="inlineStr">
         <is>
@@ -5502,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.97319495677948</v>
+        <v>0.982876718044281</v>
       </c>
       <c r="X29" s="0">
-        <v>2313</v>
+        <v>292</v>
       </c>
       <c r="AB29" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC29" s="0" t="inlineStr">
         <is>
@@ -5540,7 +5541,7 @@
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G30" s="0">
@@ -5561,20 +5562,40 @@
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
-        </is>
+          <t>Coho</t>
+        </is>
+      </c>
+      <c r="L30" s="0">
+        <v>2251</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>2251</v>
+      </c>
+      <c r="O30" s="0">
+        <v>209</v>
       </c>
       <c r="Q30" s="0">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="T30" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U30" s="0">
+        <v>1</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
       </c>
+      <c r="W30" s="0">
+        <v>0.97319495677948</v>
+      </c>
+      <c r="X30" s="0">
+        <v>2313</v>
+      </c>
       <c r="AB30" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC30" s="0" t="inlineStr">
         <is>
@@ -5606,7 +5627,7 @@
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>OT</t>
         </is>
       </c>
       <c r="G31" s="0">
@@ -5627,25 +5648,25 @@
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>Sockeye</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="L31" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N31" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
       </c>
       <c r="T31" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U31" s="0">
-        <v>0.899999976158142</v>
+        <v>0.5</v>
       </c>
       <c r="V31" s="0">
         <v>0</v>
@@ -5654,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="X31" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB31" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC31" s="0" t="inlineStr">
         <is>
@@ -5675,7 +5696,7 @@
         </is>
       </c>
       <c r="C32" s="8">
-        <v>45590</v>
+        <v>45575</v>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
@@ -5689,11 +5710,11 @@
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="G32" s="0">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H32" s="0">
         <v>3</v>
@@ -5705,42 +5726,30 @@
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>Chum</t>
-        </is>
-      </c>
-      <c r="L32" s="0">
-        <v>370</v>
-      </c>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="L32" s="0"/>
       <c r="N32" s="0">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
       </c>
-      <c r="T32" s="0" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U32" s="0">
-        <v>0.75</v>
-      </c>
+      <c r="T32" s="0" t="inlineStr"/>
+      <c r="U32" s="0"/>
       <c r="V32" s="0">
         <v>0</v>
       </c>
-      <c r="W32" s="0">
-        <v>1</v>
-      </c>
-      <c r="X32" s="0">
-        <v>493</v>
-      </c>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
       <c r="AB32" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC32" s="0" t="inlineStr">
         <is>
@@ -5758,7 +5767,7 @@
         </is>
       </c>
       <c r="C33" s="8">
-        <v>45590</v>
+        <v>45575</v>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
@@ -5772,11 +5781,11 @@
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G33" s="0">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H33" s="0">
         <v>3</v>
@@ -5788,22 +5797,20 @@
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>Flood</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>Chinook</t>
+          <t>Sockeye</t>
         </is>
       </c>
       <c r="L33" s="0">
-        <v>2</v>
-      </c>
-      <c r="M33" s="0">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M33" s="0"/>
       <c r="N33" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -5814,7 +5821,7 @@
         </is>
       </c>
       <c r="U33" s="0">
-        <v>0.75</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -5823,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="X33" s="0">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AB33" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC33" s="0" t="inlineStr">
         <is>
@@ -5858,7 +5865,7 @@
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="G34" s="0">
@@ -5879,14 +5886,14 @@
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>Coho</t>
+          <t>Chum</t>
         </is>
       </c>
       <c r="L34" s="0">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="N34" s="0">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -5897,7 +5904,7 @@
         </is>
       </c>
       <c r="U34" s="0">
-        <v>0.600000023841858</v>
+        <v>1</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -5906,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="X34" s="0">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="AB34" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC34" s="0" t="inlineStr">
         <is>
@@ -5941,7 +5948,7 @@
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="G35" s="0">
@@ -5962,20 +5969,40 @@
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
-        </is>
+          <t>Chinook</t>
+        </is>
+      </c>
+      <c r="L35" s="0">
+        <v>2</v>
+      </c>
+      <c r="M35" s="0">
+        <v>2</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="0">
         <v>0</v>
       </c>
+      <c r="T35" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U35" s="0">
+        <v>0.75</v>
+      </c>
       <c r="V35" s="0">
         <v>0</v>
       </c>
+      <c r="W35" s="0">
+        <v>1</v>
+      </c>
+      <c r="X35" s="0">
+        <v>3</v>
+      </c>
       <c r="AB35" s="8">
-        <v>45715.4194444444</v>
+        <v>45715.4890625</v>
       </c>
       <c r="AC35" s="0" t="inlineStr">
         <is>
@@ -6007,7 +6034,7 @@
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G36" s="0">
@@ -6028,30 +6055,265 @@
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
+          <t>Coho</t>
+        </is>
+      </c>
+      <c r="L36" s="0">
+        <v>108</v>
+      </c>
+      <c r="N36" s="0">
+        <v>108</v>
+      </c>
+      <c r="Q36" s="0">
+        <v>0</v>
+      </c>
+      <c r="T36" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U36" s="0">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="V36" s="0">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0">
+        <v>1</v>
+      </c>
+      <c r="X36" s="0">
+        <v>180</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>45715.4890625</v>
+      </c>
+      <c r="AC36" s="0" t="inlineStr">
+        <is>
+          <t>Y:\WCVI\ESCAPEMENT\Data\2024\2024 SIL+AUC database\SIL+AUC Database v9.1_2024_A20-21-22_WCVI.accdb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>SAN JUAN RIVER</t>
+        </is>
+      </c>
+      <c r="C37" s="8">
+        <v>45590</v>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>OT</t>
+        </is>
+      </c>
+      <c r="G37" s="0">
+        <v>8</v>
+      </c>
+      <c r="H37" s="0">
+        <v>3</v>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>3 - 5 m or to Bottom</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>Flood</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>Cutthroat</t>
+        </is>
+      </c>
+      <c r="L37" s="0">
+        <v>5</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="0">
+        <v>0</v>
+      </c>
+      <c r="T37" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U37" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="V37" s="0">
+        <v>0</v>
+      </c>
+      <c r="W37" s="0">
+        <v>1</v>
+      </c>
+      <c r="X37" s="0">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>45715.4890625</v>
+      </c>
+      <c r="AC37" s="0" t="inlineStr">
+        <is>
+          <t>Y:\WCVI\ESCAPEMENT\Data\2024\2024 SIL+AUC database\SIL+AUC Database v9.1_2024_A20-21-22_WCVI.accdb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>SAN JUAN RIVER</t>
+        </is>
+      </c>
+      <c r="C38" s="8">
+        <v>45590</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="G38" s="0">
+        <v>8</v>
+      </c>
+      <c r="H38" s="0">
+        <v>3</v>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>3 - 5 m or to Bottom</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>Flood</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="N38" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0">
+        <v>0</v>
+      </c>
+      <c r="V38" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>45715.4890625</v>
+      </c>
+      <c r="AC38" s="0" t="inlineStr">
+        <is>
+          <t>Y:\WCVI\ESCAPEMENT\Data\2024\2024 SIL+AUC database\SIL+AUC Database v9.1_2024_A20-21-22_WCVI.accdb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>SAN JUAN RIVER</t>
+        </is>
+      </c>
+      <c r="C39" s="8">
+        <v>45590</v>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="G39" s="0">
+        <v>8</v>
+      </c>
+      <c r="H39" s="0">
+        <v>3</v>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>3 - 5 m or to Bottom</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>Flood</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
           <t>Sockeye</t>
         </is>
       </c>
-      <c r="N36" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="0">
-        <v>0</v>
-      </c>
-      <c r="T36" s="0" t="inlineStr">
+      <c r="N39" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0">
+        <v>0</v>
+      </c>
+      <c r="T39" s="0" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="U36" s="0">
-        <v>1</v>
-      </c>
-      <c r="V36" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>45715.4194444444</v>
-      </c>
-      <c r="AC36" s="0" t="inlineStr">
+      <c r="U39" s="0">
+        <v>1</v>
+      </c>
+      <c r="V39" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="8">
+        <v>45715.4890625</v>
+      </c>
+      <c r="AC39" s="0" t="inlineStr">
         <is>
           <t>Y:\WCVI\ESCAPEMENT\Data\2024\2024 SIL+AUC database\SIL+AUC Database v9.1_2024_A20-21-22_WCVI.accdb</t>
         </is>
